--- a/Results/Notebook 2 Example 2/Scores/problem_1_instance3_scores.xlsx
+++ b/Results/Notebook 2 Example 2/Scores/problem_1_instance3_scores.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01106588685802273</v>
+        <v>0.016718167572847</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2446574207051343</v>
+        <v>0.190278895237403</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.08519907755987145</v>
+        <v>0.1003720825778019</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2675510714710686</v>
+        <v>0.1851143953343564</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6997689356788983</v>
+        <v>0.4392790356500113</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1183271068133085</v>
+        <v>0.143658757723793</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9757104809951885</v>
+        <v>0.9463933976029485</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3002639002814868</v>
+        <v>0.4239606987652852</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8878677496446231</v>
+        <v>0.7790492111245267</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4364588724572001</v>
+        <v>0.6048001395298276</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7728283676646011</v>
+        <v>0.4799275495545746</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05167109102357453</v>
+        <v>0.08973620266883328</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00162661075592041</v>
+        <v>0.006286856532096863</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2523589134216309</v>
+        <v>0.2229119110107422</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.07523881345150596</v>
+        <v>0.08287183264522464</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2017208690745404</v>
+        <v>0.1406518752174287</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7601328458811346</v>
+        <v>0.8412007498430536</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4937825908366301</v>
+        <v>0.6575550125876612</v>
       </c>
     </row>
   </sheetData>
